--- a/E3DCM代码清单及使用说明.xlsx
+++ b/E3DCM代码清单及使用说明.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="批处理LIST" sheetId="4" r:id="rId1"/>
-    <sheet name="TodoCount说明" sheetId="5" r:id="rId2"/>
-    <sheet name="可能遇到的异常及处理说明" sheetId="6" r:id="rId3"/>
+    <sheet name="01批处理代码清单" sheetId="4" r:id="rId1"/>
+    <sheet name="02第三方库安装" sheetId="7" r:id="rId2"/>
+    <sheet name="03SHP转TAB的环境准备" sheetId="8" r:id="rId3"/>
+    <sheet name="04TodoCount说明" sheetId="5" r:id="rId4"/>
+    <sheet name="05可能遇到的异常中止及处理说明" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="115">
   <si>
     <t xml:space="preserve">    三维各阶段对应的批处理代码及匹配的数据组织结构（内含说明）——已经组织如下，请拷贝【PythonCode_E3DCM】文件夹到本机D盘使用，减少代码中的输入输出路径修改</t>
   </si>
@@ -54,7 +56,7 @@
     <t>&gt;=3</t>
   </si>
   <si>
-    <t>LinkNode投影</t>
+    <t>LinkNode投影(打断前后)</t>
   </si>
   <si>
     <t>Def_Projection_ROAD.py</t>
@@ -208,7 +210,7 @@
 Shp2Tab</t>
   </si>
   <si>
-    <t>TAB转SHP(打断前后)</t>
+    <t>SHP转TAB(打断前后)</t>
   </si>
   <si>
     <t>shp2tab.py</t>
@@ -240,7 +242,7 @@
 RarSizeCount</t>
   </si>
   <si>
-    <t>MIF合并</t>
+    <t>租户MIF合并</t>
   </si>
   <si>
     <t>Tenant_Merge.py</t>
@@ -288,81 +290,112 @@
     <t>切图</t>
   </si>
   <si>
-    <t>输入</t>
-  </si>
-  <si>
-    <t>将比对导出的成果作为输入文件放入下图指定路径</t>
-  </si>
-  <si>
-    <t>【V1_V2】文件夹放55小城市，【V1_V2_big5】文件夹放5大城市</t>
-  </si>
-  <si>
-    <t>输出</t>
-  </si>
-  <si>
-    <t>【Result】文件夹为55小城市的成果输出路径，【Result_big5】文件夹对应5大城市</t>
-  </si>
-  <si>
-    <t>处理</t>
-  </si>
-  <si>
-    <t>代码运行顺序（小城市和大城市可以并行）</t>
-  </si>
-  <si>
-    <t>py文件请不要随意改名</t>
-  </si>
-  <si>
-    <t>适用对象</t>
-  </si>
-  <si>
-    <t>运行顺序</t>
-  </si>
-  <si>
-    <t>代码用途</t>
-  </si>
-  <si>
-    <t>代码名称</t>
-  </si>
-  <si>
-    <t>通用</t>
-  </si>
-  <si>
-    <t>小城市</t>
-  </si>
-  <si>
-    <t>大城市</t>
-  </si>
-  <si>
-    <t>备用</t>
-  </si>
-  <si>
-    <t>成果</t>
-  </si>
-  <si>
-    <t>在csv中插入空行——匹配【预处理变化量统计.xlsx】中的格式以填写</t>
-  </si>
-  <si>
-    <t>【Result】和【Result_big5】文件夹中道路N次成果归档</t>
+    <t>打开</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <sz val="12"/>
+        <color rgb="FF4D4D4D"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>1</t>
+      <t>1、在ArcGIS安装程序中找到ESRI.exe——安装</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>、程序正常运行结束——有全部完成的提示</t>
+      <t>ArcGIS</t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的扩展模块</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Data Interoperabillity</t>
+    </r>
+  </si>
+  <si>
+    <t>2、在ArcGIS扩展模块选项上勾选Data Interoperabillity，完成</t>
+  </si>
+  <si>
+    <t>输入</t>
+  </si>
+  <si>
+    <t>将比对导出的成果作为输入文件放入下图指定路径</t>
+  </si>
+  <si>
+    <t>【V1_V2】文件夹放55小城市，【V1_V2_big5】文件夹放5大城市</t>
+  </si>
+  <si>
+    <t>输出</t>
+  </si>
+  <si>
+    <t>【Result】文件夹为55小城市的成果输出路径，【Result_big5】文件夹对应5大城市</t>
+  </si>
+  <si>
+    <t>处理</t>
+  </si>
+  <si>
+    <t>代码运行顺序（小城市和大城市可以并行）</t>
+  </si>
+  <si>
+    <t>py文件请不要随意改名</t>
+  </si>
+  <si>
+    <t>适用对象</t>
+  </si>
+  <si>
+    <t>运行顺序</t>
+  </si>
+  <si>
+    <t>代码用途</t>
+  </si>
+  <si>
+    <t>代码名称</t>
+  </si>
+  <si>
+    <t>通用</t>
+  </si>
+  <si>
+    <t>小城市</t>
+  </si>
+  <si>
+    <t>大城市</t>
+  </si>
+  <si>
+    <t>备用</t>
+  </si>
+  <si>
+    <t>成果</t>
+  </si>
+  <si>
+    <t>在csv中插入空行——匹配【预处理变化量统计.xlsx】中的格式以填写</t>
+  </si>
+  <si>
+    <t>【Result】和【Result_big5】文件夹中道路N次成果归档</t>
+  </si>
+  <si>
+    <t>1、程序正常运行结束——有全部完成的提示</t>
   </si>
   <si>
     <t>2、程序运行中中止(非代码或数据错误)——出现RESTART</t>
@@ -382,21 +415,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -433,6 +458,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -447,36 +479,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -485,24 +487,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,10 +511,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -538,8 +600,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,45 +616,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="12"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -600,13 +639,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF17C913"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF17C913"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,25 +675,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.25"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,25 +693,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,13 +723,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,13 +807,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,90 +862,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,21 +1082,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1076,11 +1106,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1102,6 +1138,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1110,30 +1179,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1142,10 +1187,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1154,144 +1199,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -1306,19 +1351,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
@@ -1327,48 +1375,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1381,16 +1423,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
@@ -1399,28 +1444,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1438,7 +1489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1453,16 +1504,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
@@ -1548,9 +1608,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FF0000"/>
       <color rgb="00C6CB33"/>
       <color rgb="0017C913"/>
+      <color rgb="00FF0000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1574,7 +1634,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>238760</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>160655</xdr:rowOff>
+      <xdr:rowOff>179705</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1591,8 +1651,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="3973830"/>
-          <a:ext cx="3341370" cy="3094355"/>
+          <a:off x="9525" y="3735705"/>
+          <a:ext cx="3686810" cy="2930525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1633,8 +1693,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="130175" y="1017270"/>
-          <a:ext cx="2230120" cy="2843530"/>
+          <a:off x="130175" y="962025"/>
+          <a:ext cx="2435860" cy="2660650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1667,8 +1727,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2990215" y="6838950"/>
-          <a:ext cx="2383155" cy="0"/>
+          <a:off x="3267075" y="6429375"/>
+          <a:ext cx="2701925" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1694,10 +1754,333 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="椭圆 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5883275" y="6296025"/>
+          <a:ext cx="285750" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>29210</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600710</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29210" y="210185"/>
+          <a:ext cx="2628900" cy="2505075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>67310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133985</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="2981960"/>
+          <a:ext cx="7677150" cy="2257425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2802255</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>468630</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2802255" y="228600"/>
+          <a:ext cx="7067550" cy="4953635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400685</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10160" y="6562725"/>
+          <a:ext cx="3619500" cy="4639310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>77470</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2696845</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="77470" y="266700"/>
+          <a:ext cx="2619375" cy="2152650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5353050"/>
+          <a:ext cx="5514975" cy="1228725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1727,8 +2110,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="617220" y="182880"/>
-          <a:ext cx="3477260" cy="1510665"/>
+          <a:off x="685800" y="171450"/>
+          <a:ext cx="3819525" cy="1419225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1774,8 +2157,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7186295" y="5850255"/>
-          <a:ext cx="4093845" cy="1627505"/>
+          <a:off x="7982585" y="5495925"/>
+          <a:ext cx="4505325" cy="1496060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1816,8 +2199,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4143375" y="280035"/>
-          <a:ext cx="4535170" cy="1414145"/>
+          <a:off x="4554220" y="268605"/>
+          <a:ext cx="5057775" cy="1322705"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1862,8 +2245,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="636270" y="2290445"/>
-          <a:ext cx="5092700" cy="2734310"/>
+          <a:off x="704850" y="2153285"/>
+          <a:ext cx="5434965" cy="2562860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1908,8 +2291,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="646430" y="8780145"/>
-          <a:ext cx="6312535" cy="1680210"/>
+          <a:off x="715010" y="8191500"/>
+          <a:ext cx="6971665" cy="1577340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1929,15 +2312,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
+      <xdr:colOff>1133475</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1948,14 +2331,15 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
+        <a:srcRect l="797" t="10714" r="-1195" b="21429"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4418330" y="8442960"/>
-          <a:ext cx="2140585" cy="289560"/>
+          <a:off x="5248275" y="7924800"/>
+          <a:ext cx="2400300" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1996,8 +2380,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7214235" y="8732520"/>
-          <a:ext cx="3420745" cy="1722120"/>
+          <a:off x="8010525" y="8143875"/>
+          <a:ext cx="3763645" cy="1619250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2038,8 +2422,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="655955" y="8770620"/>
-          <a:ext cx="6312535" cy="1680210"/>
+          <a:off x="724535" y="8181975"/>
+          <a:ext cx="6971665" cy="1577340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2059,7 +2443,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2089,8 +2473,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="31115" y="212725"/>
-          <a:ext cx="4116070" cy="2151380"/>
+          <a:off x="31115" y="201295"/>
+          <a:ext cx="4527550" cy="2025650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2106,15 +2490,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>170815</xdr:rowOff>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>18415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>395605</xdr:colOff>
+      <xdr:colOff>415925</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2131,8 +2515,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4742815"/>
-          <a:ext cx="4098925" cy="2050415"/>
+          <a:off x="20320" y="4476115"/>
+          <a:ext cx="4510405" cy="1913255"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2147,14 +2531,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>29210</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>686435</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>17780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>389255</xdr:colOff>
+      <xdr:colOff>360680</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
@@ -2173,8 +2557,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9904730" y="4772660"/>
-          <a:ext cx="4063365" cy="1823720"/>
+          <a:off x="10972800" y="4475480"/>
+          <a:ext cx="4475480" cy="1709420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2207,8 +2591,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4320540" y="218440"/>
-          <a:ext cx="5331460" cy="4138930"/>
+          <a:off x="4800600" y="207010"/>
+          <a:ext cx="5880100" cy="3887470"/>
           <a:chOff x="10487" y="8389"/>
           <a:chExt cx="9590" cy="5100"/>
         </a:xfrm>
@@ -2402,7 +2786,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>617220</xdr:colOff>
+      <xdr:colOff>988060</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>36195</xdr:rowOff>
     </xdr:to>
@@ -2413,8 +2797,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="31115" y="1733550"/>
-          <a:ext cx="1203325" cy="497205"/>
+          <a:off x="31115" y="1630680"/>
+          <a:ext cx="1340485" cy="462915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2562,14 +2946,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>394970</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2586,8 +2970,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4330065" y="4754880"/>
-          <a:ext cx="4937760" cy="1299210"/>
+          <a:off x="4810125" y="4448175"/>
+          <a:ext cx="5871845" cy="1304925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2892,954 +3276,954 @@
   <sheetPr/>
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="9.37962962962963" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
     <col min="6" max="6" width="3.58333333333333" customWidth="1"/>
     <col min="7" max="7" width="3.25" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="12.8796296296296" customWidth="1"/>
-    <col min="10" max="10" width="5.12962962962963" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="5.125" customWidth="1"/>
     <col min="11" max="11" width="35.25" customWidth="1"/>
-    <col min="12" max="12" width="32.6296296296296" customWidth="1"/>
-    <col min="13" max="13" width="18.1296296296296" customWidth="1"/>
-    <col min="15" max="15" width="18.1296296296296" customWidth="1"/>
-    <col min="16" max="16" width="30.3240740740741" customWidth="1"/>
+    <col min="12" max="12" width="32.625" customWidth="1"/>
+    <col min="13" max="13" width="18.125" customWidth="1"/>
+    <col min="15" max="15" width="18.125" customWidth="1"/>
+    <col min="16" max="16" width="30.325" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15" spans="5:15">
-      <c r="E1" s="13"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-    </row>
-    <row r="2" ht="15.15" spans="1:16">
-      <c r="A2" s="37" t="s">
+    <row r="1" ht="14.25" spans="5:15">
+      <c r="E1" s="6"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:16">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="55" t="s">
+      <c r="O2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="56"/>
-    </row>
-    <row r="3" ht="15.15" spans="1:16">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="41" t="s">
+      <c r="P2" s="58"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="43">
         <v>1</v>
       </c>
-      <c r="K3" s="57" t="s">
+      <c r="K3" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="57" t="s">
+      <c r="L3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="57" t="s">
+      <c r="M3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="57" t="s">
+      <c r="N3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="56"/>
-    </row>
-    <row r="4" ht="15.15" spans="1:16">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="43" t="s">
+      <c r="O3" s="60"/>
+      <c r="P3" s="58"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:16">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="45">
         <v>2</v>
       </c>
-      <c r="K4" s="58" t="s">
+      <c r="K4" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="58" t="s">
+      <c r="L4" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="58" t="s">
+      <c r="M4" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="58" t="s">
+      <c r="N4" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="58"/>
-      <c r="P4" s="56"/>
-    </row>
-    <row r="5" ht="29.55" spans="1:15">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="45" t="s">
+      <c r="O4" s="62"/>
+      <c r="P4" s="58"/>
+    </row>
+    <row r="5" ht="27.75" spans="1:15">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="52">
+      <c r="J5" s="54">
         <v>1</v>
       </c>
-      <c r="K5" s="59" t="s">
+      <c r="K5" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="59" t="s">
+      <c r="L5" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="58" t="s">
+      <c r="M5" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="59" t="s">
+      <c r="N5" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="59" t="s">
+      <c r="O5" s="64" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" ht="15.15" spans="1:15">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="45" t="s">
+    <row r="6" ht="14.25" spans="1:15">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="52">
+      <c r="J6" s="54">
         <v>0</v>
       </c>
-      <c r="K6" s="59" t="s">
+      <c r="K6" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="59" t="s">
+      <c r="L6" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="59" t="s">
+      <c r="N6" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="59"/>
-    </row>
-    <row r="7" ht="15.15" spans="1:15">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="52" t="s">
+      <c r="O6" s="64"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:15">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="52">
+      <c r="J7" s="54">
         <v>1</v>
       </c>
-      <c r="K7" s="59" t="s">
+      <c r="K7" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="59" t="s">
+      <c r="L7" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="58" t="s">
+      <c r="M7" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="59" t="s">
+      <c r="N7" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="59"/>
-    </row>
-    <row r="8" ht="15.15" spans="1:15">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="52" t="s">
+      <c r="O7" s="64"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:15">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="52">
+      <c r="J8" s="54">
         <v>2</v>
       </c>
-      <c r="K8" s="59" t="s">
+      <c r="K8" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="59" t="s">
+      <c r="L8" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="57" t="s">
+      <c r="M8" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="59" t="s">
+      <c r="N8" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="59"/>
-    </row>
-    <row r="9" ht="15.15" spans="1:15">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="52" t="s">
+      <c r="O8" s="64"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:15">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="52">
+      <c r="J9" s="54">
         <v>3</v>
       </c>
-      <c r="K9" s="59" t="s">
+      <c r="K9" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="59" t="s">
+      <c r="L9" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="M9" s="57" t="s">
+      <c r="M9" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="59" t="s">
+      <c r="N9" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="59"/>
-    </row>
-    <row r="10" ht="15.15" spans="1:16">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="52" t="s">
+      <c r="O9" s="64"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:16">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="52">
+      <c r="J10" s="54">
         <v>4</v>
       </c>
-      <c r="K10" s="59" t="s">
+      <c r="K10" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="59" t="s">
+      <c r="L10" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="57" t="s">
+      <c r="M10" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="59" t="s">
+      <c r="N10" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="59"/>
-      <c r="P10" s="60"/>
-    </row>
-    <row r="11" ht="15.15" spans="1:16">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="52" t="s">
+      <c r="O10" s="64"/>
+      <c r="P10" s="65"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:16">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="52">
+      <c r="J11" s="54">
         <v>5</v>
       </c>
-      <c r="K11" s="59" t="s">
+      <c r="K11" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="59" t="s">
+      <c r="L11" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="M11" s="57" t="s">
+      <c r="M11" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="59" t="s">
+      <c r="N11" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="59"/>
-      <c r="P11" s="60"/>
-    </row>
-    <row r="12" ht="15.15" spans="1:16">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="52" t="s">
+      <c r="O11" s="64"/>
+      <c r="P11" s="65"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:16">
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="52">
+      <c r="J12" s="54">
         <v>6</v>
       </c>
-      <c r="K12" s="59" t="s">
+      <c r="K12" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="59" t="s">
+      <c r="L12" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="57" t="s">
+      <c r="M12" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="N12" s="59" t="s">
+      <c r="N12" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="59"/>
-      <c r="P12" s="60"/>
-    </row>
-    <row r="13" ht="15.15" spans="1:16">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="52" t="s">
+      <c r="O12" s="64"/>
+      <c r="P12" s="65"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:16">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="52">
+      <c r="J13" s="54">
         <v>7</v>
       </c>
-      <c r="K13" s="59" t="s">
+      <c r="K13" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="59" t="s">
+      <c r="L13" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="M13" s="57" t="s">
+      <c r="M13" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="N13" s="59" t="s">
+      <c r="N13" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="59"/>
-      <c r="P13" s="60"/>
-    </row>
-    <row r="14" ht="15.15" spans="1:16">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="52" t="s">
+      <c r="O13" s="64"/>
+      <c r="P13" s="65"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:16">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="52">
+      <c r="J14" s="54">
         <v>8</v>
       </c>
-      <c r="K14" s="59" t="s">
+      <c r="K14" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="L14" s="59" t="s">
+      <c r="L14" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="M14" s="57" t="s">
+      <c r="M14" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="59" t="s">
+      <c r="N14" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="O14" s="59"/>
-      <c r="P14" s="60"/>
-    </row>
-    <row r="15" ht="15.15" spans="1:16">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="52" t="s">
+      <c r="O14" s="64"/>
+      <c r="P14" s="65"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:16">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="52">
+      <c r="J15" s="54">
         <v>9</v>
       </c>
-      <c r="K15" s="59" t="s">
+      <c r="K15" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="L15" s="59" t="s">
+      <c r="L15" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="M15" s="58" t="s">
+      <c r="M15" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="N15" s="59" t="s">
+      <c r="N15" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="O15" s="59" t="s">
+      <c r="O15" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="P15" s="60"/>
-    </row>
-    <row r="16" ht="15.15" spans="1:15">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="48" t="s">
+      <c r="P15" s="65"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:15">
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="45" t="s">
+      <c r="H16" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="52">
+      <c r="I16" s="54">
         <v>1</v>
       </c>
-      <c r="J16" s="52">
+      <c r="J16" s="54">
         <v>0</v>
       </c>
-      <c r="K16" s="59" t="s">
+      <c r="K16" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="59" t="s">
+      <c r="L16" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="M16" s="58" t="s">
+      <c r="M16" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="N16" s="59" t="s">
+      <c r="N16" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="O16" s="59" t="s">
+      <c r="O16" s="64" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" ht="15.15" spans="1:15">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="52">
+    <row r="17" ht="14.25" spans="1:15">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="54">
         <v>1</v>
       </c>
-      <c r="J17" s="52">
+      <c r="J17" s="54">
         <v>1</v>
       </c>
-      <c r="K17" s="59" t="s">
+      <c r="K17" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="L17" s="59" t="s">
+      <c r="L17" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="M17" s="58" t="s">
+      <c r="M17" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="N17" s="59" t="s">
+      <c r="N17" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="O17" s="59"/>
-    </row>
-    <row r="18" ht="15.15" spans="1:15">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="52">
+      <c r="O17" s="64"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:15">
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="54">
         <v>1</v>
       </c>
-      <c r="J18" s="52">
+      <c r="J18" s="54">
         <v>2</v>
       </c>
-      <c r="K18" s="59" t="s">
+      <c r="K18" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="L18" s="59" t="s">
+      <c r="L18" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="M18" s="58" t="s">
+      <c r="M18" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="N18" s="59" t="s">
+      <c r="N18" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="O18" s="59"/>
-    </row>
-    <row r="19" ht="15.15" spans="1:15">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="52">
+      <c r="O18" s="64"/>
+    </row>
+    <row r="19" ht="14.25" spans="1:15">
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="54">
         <v>1</v>
       </c>
-      <c r="J19" s="52">
+      <c r="J19" s="54">
         <v>3</v>
       </c>
-      <c r="K19" s="59" t="s">
+      <c r="K19" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="L19" s="59" t="s">
+      <c r="L19" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="M19" s="59" t="s">
+      <c r="M19" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="N19" s="59" t="s">
+      <c r="N19" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="O19" s="59"/>
-    </row>
-    <row r="20" ht="15.15" spans="1:15">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="52">
+      <c r="O19" s="64"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:15">
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="54">
         <v>1</v>
       </c>
-      <c r="J20" s="52">
+      <c r="J20" s="54">
         <v>4</v>
       </c>
-      <c r="K20" s="59" t="s">
+      <c r="K20" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="L20" s="59" t="s">
+      <c r="L20" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="M20" s="59" t="s">
+      <c r="M20" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="N20" s="59" t="s">
+      <c r="N20" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="O20" s="59"/>
-    </row>
-    <row r="21" ht="15.15" spans="1:15">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="52">
+      <c r="O20" s="64"/>
+    </row>
+    <row r="21" ht="14.25" spans="1:15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="54">
         <v>1</v>
       </c>
-      <c r="J21" s="52">
+      <c r="J21" s="54">
         <v>5</v>
       </c>
-      <c r="K21" s="59" t="s">
+      <c r="K21" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="L21" s="59" t="s">
+      <c r="L21" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="M21" s="59" t="s">
+      <c r="M21" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="N21" s="59" t="s">
+      <c r="N21" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="O21" s="59"/>
-    </row>
-    <row r="22" ht="15.15" spans="1:15">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="52">
+      <c r="O21" s="64"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:15">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="54">
         <v>1</v>
       </c>
-      <c r="J22" s="52">
+      <c r="J22" s="54">
         <v>6</v>
       </c>
-      <c r="K22" s="59" t="s">
+      <c r="K22" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="L22" s="59" t="s">
+      <c r="L22" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="M22" s="59" t="s">
+      <c r="M22" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="N22" s="59" t="s">
+      <c r="N22" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="O22" s="59"/>
-    </row>
-    <row r="23" ht="15.15" spans="1:15">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="52">
+      <c r="O22" s="64"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="54">
         <v>1</v>
       </c>
-      <c r="J23" s="52">
+      <c r="J23" s="54">
         <v>7</v>
       </c>
-      <c r="K23" s="59" t="s">
+      <c r="K23" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="L23" s="59" t="s">
+      <c r="L23" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="M23" s="59" t="s">
+      <c r="M23" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="N23" s="59" t="s">
+      <c r="N23" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="O23" s="59"/>
-    </row>
-    <row r="24" ht="29.55" spans="1:15">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="G24" s="52" t="s">
+      <c r="O23" s="64"/>
+    </row>
+    <row r="24" ht="27.75" spans="1:15">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="G24" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="H24" s="53" t="s">
+      <c r="H24" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="52">
+      <c r="I24" s="54">
         <v>2</v>
       </c>
-      <c r="J24" s="52">
+      <c r="J24" s="54">
         <v>1</v>
       </c>
-      <c r="K24" s="59" t="s">
+      <c r="K24" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="L24" s="59" t="s">
+      <c r="L24" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="M24" s="59" t="s">
+      <c r="M24" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="N24" s="59" t="s">
+      <c r="N24" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="O24" s="59"/>
-    </row>
-    <row r="25" ht="15.15" spans="7:15">
-      <c r="G25" s="48" t="s">
+      <c r="O24" s="64"/>
+    </row>
+    <row r="25" ht="14.25" spans="7:15">
+      <c r="G25" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="H25" s="45" t="s">
+      <c r="H25" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="I25" s="52">
+      <c r="I25" s="54">
         <v>1</v>
       </c>
-      <c r="J25" s="52">
+      <c r="J25" s="54">
         <v>1</v>
       </c>
-      <c r="K25" s="59" t="s">
+      <c r="K25" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="L25" s="59" t="s">
+      <c r="L25" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="M25" s="58" t="s">
+      <c r="M25" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="N25" s="59" t="s">
+      <c r="N25" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="O25" s="59" t="s">
+      <c r="O25" s="64" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" ht="15.15" spans="7:15">
-      <c r="G26" s="49"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="61">
+    <row r="26" ht="14.25" spans="7:15">
+      <c r="G26" s="51"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="66">
         <v>1</v>
       </c>
-      <c r="J26" s="52">
+      <c r="J26" s="54">
         <v>2</v>
       </c>
-      <c r="K26" s="59" t="s">
+      <c r="K26" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="L26" s="59" t="s">
+      <c r="L26" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="M26" s="58" t="s">
+      <c r="M26" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="N26" s="59" t="s">
+      <c r="N26" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="O26" s="59" t="s">
+      <c r="O26" s="64" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" ht="15.15" spans="7:15">
-      <c r="G27" s="48" t="s">
+    <row r="27" ht="14.25" spans="7:15">
+      <c r="G27" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="H27" s="53" t="s">
+      <c r="H27" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="I27" s="61">
+      <c r="I27" s="66">
         <v>1</v>
       </c>
-      <c r="J27" s="52">
+      <c r="J27" s="54">
         <v>1</v>
       </c>
-      <c r="K27" s="59" t="s">
+      <c r="K27" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="L27" s="59" t="s">
+      <c r="L27" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="M27" s="58" t="s">
+      <c r="M27" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="N27" s="59" t="s">
+      <c r="N27" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="O27" s="59" t="s">
+      <c r="O27" s="64" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" ht="15.15" spans="7:15">
-      <c r="G28" s="49"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="61">
+    <row r="28" ht="14.25" spans="7:15">
+      <c r="G28" s="51"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="66">
         <v>1</v>
       </c>
-      <c r="J28" s="52">
+      <c r="J28" s="54">
         <v>2</v>
       </c>
-      <c r="K28" s="59" t="s">
+      <c r="K28" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="L28" s="59" t="s">
+      <c r="L28" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="M28" s="59" t="s">
+      <c r="M28" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="N28" s="59" t="s">
+      <c r="N28" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="O28" s="59" t="s">
+      <c r="O28" s="64" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" ht="15.15" spans="7:15">
-      <c r="G29" s="49"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52">
+    <row r="29" ht="14.25" spans="7:15">
+      <c r="G29" s="51"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54">
         <v>1</v>
       </c>
-      <c r="J29" s="52">
+      <c r="J29" s="54">
         <v>3</v>
       </c>
-      <c r="K29" s="59" t="s">
+      <c r="K29" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="L29" s="59" t="s">
+      <c r="L29" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="M29" s="59" t="s">
+      <c r="M29" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="N29" s="59" t="s">
+      <c r="N29" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="59" t="s">
+      <c r="O29" s="64" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" ht="15.15" spans="7:15">
-      <c r="G30" s="48"/>
-      <c r="H30" s="54" t="s">
+    <row r="30" ht="14.25" spans="7:15">
+      <c r="G30" s="50"/>
+      <c r="H30" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="I30" s="62" t="s">
+      <c r="I30" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="63"/>
-    </row>
-    <row r="31" ht="15.15" spans="7:15">
-      <c r="G31" s="49"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="62" t="s">
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="68"/>
+    </row>
+    <row r="31" ht="14.25" spans="7:15">
+      <c r="G31" s="51"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="63"/>
-    </row>
-    <row r="32" ht="15.15" spans="7:15">
-      <c r="G32" s="49"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="64" t="s">
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="68"/>
+    </row>
+    <row r="32" ht="14.25" spans="7:15">
+      <c r="G32" s="51"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="65"/>
-    </row>
-    <row r="33" ht="15.15" spans="7:15">
-      <c r="G33" s="49"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="62" t="s">
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="70"/>
+    </row>
+    <row r="33" ht="14.25" spans="7:15">
+      <c r="G33" s="51"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="63"/>
-    </row>
-    <row r="34" ht="15.15" spans="7:15">
-      <c r="G34" s="49"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="62" t="s">
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="68"/>
+    </row>
+    <row r="34" ht="14.25" spans="7:15">
+      <c r="G34" s="51"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="63"/>
-    </row>
-    <row r="35" ht="15.15" spans="7:15">
-      <c r="G35" s="51"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="66" t="s">
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="68"/>
+    </row>
+    <row r="35" ht="14.25" spans="7:15">
+      <c r="G35" s="53"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="66"/>
-      <c r="M35" s="66"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="67"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="72"/>
     </row>
     <row r="58" spans="12:12">
       <c r="L58" t="s">
@@ -3889,94 +4273,983 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="42.375" customWidth="1"/>
+    <col min="11" max="11" width="6.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" spans="1:6">
+      <c r="A1" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" ht="14.25" spans="1:4">
+      <c r="A31" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="8.87962962962963" customWidth="1"/>
-    <col min="4" max="4" width="27.1296296296296" customWidth="1"/>
-    <col min="5" max="5" width="32.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="4" max="4" width="27.125" customWidth="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="31"/>
+      <c r="A1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="9"/>
-      <c r="N2" s="32"/>
+      <c r="A2" s="10"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="9"/>
-      <c r="N3" s="32"/>
+      <c r="A3" s="10"/>
+      <c r="N3" s="31"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="9"/>
-      <c r="N4" s="32"/>
+      <c r="A4" s="10"/>
+      <c r="N4" s="31"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="9"/>
-      <c r="N5" s="32"/>
+      <c r="A5" s="10"/>
+      <c r="N5" s="31"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="9"/>
-      <c r="N6" s="32"/>
+      <c r="A6" s="10"/>
+      <c r="N6" s="31"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="9"/>
-      <c r="N7" s="32"/>
+      <c r="A7" s="10"/>
+      <c r="N7" s="31"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="9"/>
-      <c r="N8" s="32"/>
+      <c r="A8" s="10"/>
+      <c r="N8" s="31"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="9"/>
-      <c r="N9" s="32"/>
+      <c r="A9" s="10"/>
+      <c r="N9" s="31"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="9"/>
-      <c r="N10" s="32"/>
+      <c r="A10" s="10"/>
+      <c r="N10" s="31"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="10" t="s">
-        <v>88</v>
+      <c r="A11" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
       <c r="N11" s="32"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="10" t="s">
-        <v>91</v>
+      <c r="A12" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -3984,143 +5257,148 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
       <c r="N12" s="32"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="9"/>
-      <c r="N13" s="32"/>
+      <c r="A13" s="10"/>
+      <c r="N13" s="31"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="9"/>
-      <c r="N14" s="32"/>
+      <c r="A14" s="10"/>
+      <c r="N14" s="31"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="9"/>
-      <c r="N15" s="32"/>
+      <c r="A15" s="10"/>
+      <c r="N15" s="31"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="9"/>
-      <c r="N16" s="32"/>
+      <c r="A16" s="10"/>
+      <c r="N16" s="31"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="9"/>
-      <c r="N17" s="32"/>
+      <c r="A17" s="10"/>
+      <c r="N17" s="31"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="9"/>
-      <c r="N18" s="32"/>
+      <c r="A18" s="10"/>
+      <c r="N18" s="31"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="9"/>
-      <c r="N19" s="32"/>
+      <c r="A19" s="10"/>
+      <c r="N19" s="31"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="9"/>
-      <c r="N20" s="32"/>
+      <c r="A20" s="10"/>
+      <c r="N20" s="31"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="9"/>
-      <c r="N21" s="32"/>
+      <c r="A21" s="10"/>
+      <c r="N21" s="31"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="9"/>
-      <c r="N22" s="32"/>
+      <c r="A22" s="10"/>
+      <c r="N22" s="31"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="9"/>
-      <c r="N23" s="32"/>
+      <c r="A23" s="10"/>
+      <c r="N23" s="31"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="9"/>
-      <c r="N24" s="32"/>
+      <c r="A24" s="10"/>
+      <c r="N24" s="31"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="9"/>
-      <c r="N25" s="32"/>
+      <c r="A25" s="10"/>
+      <c r="N25" s="31"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="9"/>
-      <c r="N26" s="32"/>
+      <c r="A26" s="10"/>
+      <c r="N26" s="31"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="9"/>
-      <c r="N27" s="32"/>
+      <c r="A27" s="10"/>
+      <c r="N27" s="31"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="9"/>
-      <c r="N28" s="32"/>
+      <c r="A28" s="10"/>
+      <c r="N28" s="31"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="9"/>
-      <c r="N29" s="32"/>
-    </row>
-    <row r="30" ht="15.15" spans="1:14">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
+      <c r="A29" s="10"/>
+      <c r="N29" s="31"/>
+    </row>
+    <row r="30" ht="14.25" spans="1:14">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
       <c r="N30" s="33"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="31"/>
-    </row>
-    <row r="32" ht="15.15" spans="1:14">
-      <c r="A32" s="9"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="N32" s="32"/>
-    </row>
-    <row r="33" ht="16.35" spans="1:14">
-      <c r="A33" s="9"/>
+      <c r="A31" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="30"/>
+    </row>
+    <row r="32" ht="14.25" spans="1:14">
+      <c r="A32" s="10"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="N32" s="31"/>
+    </row>
+    <row r="33" ht="15" spans="1:14">
+      <c r="A33" s="10"/>
       <c r="B33" s="14" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F33" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="N33" s="32"/>
-    </row>
-    <row r="34" ht="16.35" spans="1:14">
-      <c r="A34" s="9"/>
+      <c r="N33" s="31"/>
+    </row>
+    <row r="34" ht="15" spans="1:14">
+      <c r="A34" s="10"/>
       <c r="B34" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C34" s="16">
         <v>0</v>
@@ -4134,10 +5412,10 @@
       <c r="F34" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N34" s="32"/>
-    </row>
-    <row r="35" ht="16.35" spans="1:14">
-      <c r="A35" s="9"/>
+      <c r="N34" s="31"/>
+    </row>
+    <row r="35" ht="15" spans="1:14">
+      <c r="A35" s="10"/>
       <c r="B35" s="18"/>
       <c r="C35" s="16">
         <v>1</v>
@@ -4151,12 +5429,12 @@
       <c r="F35" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="N35" s="32"/>
-    </row>
-    <row r="36" ht="16.35" spans="1:14">
-      <c r="A36" s="9"/>
+      <c r="N35" s="31"/>
+    </row>
+    <row r="36" ht="15" spans="1:14">
+      <c r="A36" s="10"/>
       <c r="B36" s="19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C36" s="16">
         <v>2</v>
@@ -4170,10 +5448,10 @@
       <c r="F36" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N36" s="32"/>
-    </row>
-    <row r="37" ht="16.35" spans="1:14">
-      <c r="A37" s="9"/>
+      <c r="N36" s="31"/>
+    </row>
+    <row r="37" ht="15" spans="1:14">
+      <c r="A37" s="10"/>
       <c r="B37" s="20"/>
       <c r="C37" s="16">
         <v>3</v>
@@ -4187,10 +5465,10 @@
       <c r="F37" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N37" s="32"/>
-    </row>
-    <row r="38" ht="16.35" spans="1:14">
-      <c r="A38" s="9"/>
+      <c r="N37" s="31"/>
+    </row>
+    <row r="38" ht="15" spans="1:14">
+      <c r="A38" s="10"/>
       <c r="B38" s="21"/>
       <c r="C38" s="16">
         <v>4</v>
@@ -4204,12 +5482,12 @@
       <c r="F38" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N38" s="32"/>
-    </row>
-    <row r="39" ht="16.35" spans="1:14">
-      <c r="A39" s="9"/>
+      <c r="N38" s="31"/>
+    </row>
+    <row r="39" ht="15" spans="1:14">
+      <c r="A39" s="10"/>
       <c r="B39" s="19" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C39" s="16">
         <v>5</v>
@@ -4223,10 +5501,10 @@
       <c r="F39" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N39" s="32"/>
-    </row>
-    <row r="40" ht="16.35" spans="1:14">
-      <c r="A40" s="9"/>
+      <c r="N39" s="31"/>
+    </row>
+    <row r="40" ht="15" spans="1:14">
+      <c r="A40" s="10"/>
       <c r="B40" s="20"/>
       <c r="C40" s="16">
         <v>6</v>
@@ -4240,10 +5518,10 @@
       <c r="F40" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N40" s="32"/>
-    </row>
-    <row r="41" ht="16.35" spans="1:14">
-      <c r="A41" s="9"/>
+      <c r="N40" s="31"/>
+    </row>
+    <row r="41" ht="15" spans="1:14">
+      <c r="A41" s="10"/>
       <c r="B41" s="20"/>
       <c r="C41" s="16">
         <v>7</v>
@@ -4257,10 +5535,10 @@
       <c r="F41" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N41" s="32"/>
-    </row>
-    <row r="42" ht="16.35" spans="1:14">
-      <c r="A42" s="9"/>
+      <c r="N41" s="31"/>
+    </row>
+    <row r="42" ht="15" spans="1:14">
+      <c r="A42" s="10"/>
       <c r="B42" s="21"/>
       <c r="C42" s="16">
         <v>8</v>
@@ -4274,12 +5552,12 @@
       <c r="F42" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N42" s="32"/>
-    </row>
-    <row r="43" ht="16.35" spans="1:14">
-      <c r="A43" s="9"/>
+      <c r="N42" s="31"/>
+    </row>
+    <row r="43" ht="15" spans="1:14">
+      <c r="A43" s="10"/>
       <c r="B43" s="22" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C43" s="16">
         <v>9</v>
@@ -4293,42 +5571,42 @@
       <c r="F43" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="N43" s="32"/>
+      <c r="N43" s="31"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="9"/>
-      <c r="N44" s="32"/>
-    </row>
-    <row r="45" ht="15.15" spans="1:14">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
+      <c r="A44" s="10"/>
+      <c r="N44" s="31"/>
+    </row>
+    <row r="45" ht="14.25" spans="1:14">
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
       <c r="N45" s="33"/>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="24" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
       <c r="E46" s="25"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
       <c r="H46" s="25" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
@@ -4338,163 +5616,163 @@
       <c r="N46" s="34"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="27"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
       <c r="N47" s="35"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="27"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
       <c r="N48" s="35"/>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="27"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
       <c r="N49" s="35"/>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="27"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
       <c r="N50" s="35"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="27"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
       <c r="N51" s="35"/>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="27"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="28"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
       <c r="N52" s="35"/>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="27"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
       <c r="N53" s="35"/>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="27"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="28"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
       <c r="N54" s="35"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="27"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="28"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
       <c r="N55" s="35"/>
     </row>
-    <row r="56" ht="15.15" spans="1:14">
-      <c r="A56" s="29"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
+    <row r="56" ht="14.25" spans="1:14">
+      <c r="A56" s="28"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
       <c r="N56" s="36"/>
     </row>
   </sheetData>
@@ -4509,50 +5787,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="H1" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="5"/>
+      <c r="N1" s="7"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
     </row>
     <row r="26" spans="1:24">
       <c r="A26" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -4568,7 +5846,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="Q26" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
@@ -4578,20 +5856,36 @@
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
     </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+    </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
+      <c r="A40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
